--- a/openMP metrics.xlsx
+++ b/openMP metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{806358E1-A7D8-4A46-9B51-4211FE55043A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB773492-6DCD-435D-95E5-0B5B97BFC0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,9 +114,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -400,7 +403,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,7 +454,7 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>800</v>
       </c>
       <c r="G4" t="s">
@@ -471,7 +474,7 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>600</v>
       </c>
       <c r="G5" t="s">
